--- a/database/data-demo.xlsx
+++ b/database/data-demo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattchung/Desktop/c22/WSP/cs22-wsp-proj-01-sw/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFA3FAD-74E9-E441-8577-B1152B74E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9775F2-D7DB-3748-A21B-FD41E48C2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="880" windowWidth="26300" windowHeight="22500" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
+    <workbookView xWindow="11800" yWindow="880" windowWidth="24200" windowHeight="22500" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="messages" sheetId="3" r:id="rId2"/>
+    <sheet name="users" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>user_id</t>
   </si>
@@ -53,12 +51,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
     <t>introduction</t>
   </si>
   <si>
@@ -110,12 +102,6 @@
     <t>matt</t>
   </si>
   <si>
-    <t>UnitedStates</t>
-  </si>
-  <si>
-    <t>NewYork</t>
-  </si>
-  <si>
     <t>2022-09-01</t>
   </si>
   <si>
@@ -132,6 +118,24 @@
   </si>
   <si>
     <t>Red beach is good</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>trip is good</t>
+  </si>
+  <si>
+    <t>trip is bad</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Auckland</t>
   </si>
 </sst>
 </file>
@@ -167,9 +171,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,22 +488,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33959B85-7ADA-EE41-8E00-63B500A97CEB}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,21 +520,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -540,102 +543,86 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2">
         <v>5</v>
       </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="H3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>10000</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
         <v>10</v>
       </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
       <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -645,6 +632,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7620243F-2F8E-334C-B302-A3370A1AE856}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C48AA-8401-B04F-94BD-BC7945090777}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -656,21 +694,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -678,10 +716,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>

--- a/database/data-demo.xlsx
+++ b/database/data-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattchung/Desktop/c22/WSP/cs22-wsp-proj-01-sw/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9775F2-D7DB-3748-A21B-FD41E48C2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7252D743-81FB-794D-B578-DC0155DF3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11800" yWindow="880" windowWidth="24200" windowHeight="22500" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/data-demo.xlsx
+++ b/database/data-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattchung/Desktop/c22/WSP/cs22-wsp-proj-01-sw/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7252D743-81FB-794D-B578-DC0155DF3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61400709-828A-A14B-AEF6-90B1CB753DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="880" windowWidth="24200" windowHeight="22500" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
+    <workbookView xWindow="6040" yWindow="760" windowWidth="24200" windowHeight="18880" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Red beach</t>
   </si>
   <si>
-    <t>Red beach is good</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Auckland</t>
+  </si>
+  <si>
+    <t>Locals call it the Red Beach, but better known internationally as the Pink Beach. The good news again, on this beach there is not building anything and not where people live. In the world, pink sandy beaches there are only 7 in the world, one of them on the island of Komodo. Pink sand is formed from pieces of red coral. But the truth is a kind of amoeba microscopic animals called Foraminifera which produce red or pink light on the reef. If we take a pinch of sand was then shown a red sand in between the white sand. When the waves sweeping the sand and pull it, then sand the color turned into dark pink. Cool! Grains of sand was smooth and soft, so delicious when walking or sunbathing on it.</t>
   </si>
 </sst>
 </file>
@@ -171,9 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,14 +500,14 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
@@ -544,44 +553,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1000</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>5</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -646,18 +655,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -668,7 +677,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>

--- a/database/data-demo.xlsx
+++ b/database/data-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattchung/Desktop/c22/WSP/cs22-wsp-proj-01-sw/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61400709-828A-A14B-AEF6-90B1CB753DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDBEAC-4C22-8D4E-A25E-0257B5185209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="760" windowWidth="24200" windowHeight="18880" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
+    <workbookView xWindow="6220" yWindow="760" windowWidth="24020" windowHeight="18880" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>user_id</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>hello I am matt</t>
-  </si>
-  <si>
-    <t>tecky</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>Red beach</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -129,13 +120,40 @@
     <t>event_id</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
     <t>Locals call it the Red Beach, but better known internationally as the Pink Beach. The good news again, on this beach there is not building anything and not where people live. In the world, pink sandy beaches there are only 7 in the world, one of them on the island of Komodo. Pink sand is formed from pieces of red coral. But the truth is a kind of amoeba microscopic animals called Foraminifera which produce red or pink light on the reef. If we take a pinch of sand was then shown a red sand in between the white sand. When the waves sweeping the sand and pull it, then sand the color turned into dark pink. Cool! Grains of sand was smooth and soft, so delicious when walking or sunbathing on it.</t>
+  </si>
+  <si>
+    <t>Tecky Academy is an award-winning, EdTech-driven technology academy founded in 2018 Hong Kong.We have an ambition of providing pragmatic and cutting-edge technology education to learners who are mostly looking to tap into the Tech Industry. Our hard work gains wide recognition from our customers, employers, and collaborating partners. We pride ourselves on the high quality of our team's work, enabling us to be not just the Best, but also the largest Coding School in Hong Kong. Unlike traditional tech education that focuses on theories, we uniquely blend multiple pedagogies including online-learning, flex model and immersive model which distinguishes us from others.</t>
+  </si>
+  <si>
+    <t>Machu Picchu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peru</t>
+  </si>
+  <si>
+    <t>Machu Picchu is a 15th-century Inca citadel located in the Eastern Cordillera of southern Peru on a 2,430-meter (7,970 ft) mountain ridge. It is located in the Machupicchu District within Urubamba Province above the Sacred Valley, which is 80 kilometers (50 mi) northwest of Cusco. The Urubamba River flows past it, cutting through the Cordillera and creating a canyon with a tropical mountain climate.</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>Tecky</t>
+  </si>
+  <si>
+    <t>golden sun centre</t>
+  </si>
+  <si>
+    <t>Pink Beach</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Pink beach Crazy Trip</t>
   </si>
 </sst>
 </file>
@@ -171,17 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,141 +511,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33959B85-7ADA-EE41-8E00-63B500A97CEB}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="64.33203125" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="64.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -655,18 +714,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -677,7 +736,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -703,21 +762,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -725,10 +784,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>

--- a/database/data-demo.xlsx
+++ b/database/data-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattchung/Desktop/c22/WSP/cs22-wsp-proj-01-sw/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDBEAC-4C22-8D4E-A25E-0257B5185209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CCE7E-D016-424D-8992-69D9742297D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="760" windowWidth="24020" windowHeight="18880" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
   </bookViews>

--- a/database/data-demo.xlsx
+++ b/database/data-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattchung/Desktop/c22/WSP/cs22-wsp-proj-01-sw/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CCE7E-D016-424D-8992-69D9742297D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B36F722-A353-2543-A114-46DFD4E59F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="760" windowWidth="24020" windowHeight="18880" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
+    <workbookView xWindow="15120" yWindow="780" windowWidth="15120" windowHeight="18880" xr2:uid="{4A3595FF-E085-5649-89AE-3657F170B4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33959B85-7ADA-EE41-8E00-63B500A97CEB}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
